--- a/uncertainty_models/UMCDF_I2.xlsx
+++ b/uncertainty_models/UMCDF_I2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\UM_I1_I2_plateforme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC94F9-2F29-4674-8C1B-0C92866A8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB56653-C320-4FAB-B6A6-FCA37EE39041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uncertainty_models/UMCDF_I2.xlsx
+++ b/uncertainty_models/UMCDF_I2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB56653-C320-4FAB-B6A6-FCA37EE39041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A751C2E-7510-4981-B209-20C6BB0A9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="40">
   <si>
     <t>a</t>
   </si>
@@ -675,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1221,66 +1221,66 @@
         <v>0</v>
       </c>
       <c r="G8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="H8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="I8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="J8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="K8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="L8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="M8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="N8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="O8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="P8" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="Q8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="R8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="S8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="T8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="U8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="V8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="W8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="X8" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>12</v>
@@ -1295,66 +1295,66 @@
         <v>0</v>
       </c>
       <c r="G9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="H9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="O9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="P9" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="R9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="S9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="T9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="U9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="V9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="W9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="X9" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>12</v>
@@ -1369,66 +1369,66 @@
         <v>0</v>
       </c>
       <c r="G10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P10" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>12</v>
@@ -1443,66 +1443,66 @@
         <v>0</v>
       </c>
       <c r="G11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>12</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>12</v>
@@ -1665,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="H14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="I14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="J14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="K14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="L14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="M14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="N14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="O14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="P14" s="22">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="Q14" s="22">
         <v>-0.1</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>12</v>
@@ -1739,34 +1739,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="J15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="O15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="P15" s="21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q15" s="21">
         <v>-0.05</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>12</v>
@@ -1813,66 +1813,66 @@
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="U16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>12</v>
@@ -1887,66 +1887,66 @@
         <v>0</v>
       </c>
       <c r="G17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P17" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>12</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>12</v>
@@ -2094,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>12</v>
@@ -2139,28 +2139,28 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="T20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="U20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="V20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="W20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="X20" s="22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>12</v>
@@ -2213,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="V21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="W21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="X21" s="21">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>12</v>
@@ -2257,58 +2257,58 @@
         <v>0</v>
       </c>
       <c r="G22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P22" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X22" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>12</v>
@@ -2331,58 +2331,58 @@
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P23" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>12</v>
@@ -2464,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>12</v>
@@ -2538,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>12</v>
@@ -2553,58 +2553,58 @@
         <v>0</v>
       </c>
       <c r="G26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="H26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="I26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="J26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="K26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="L26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="N26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="P26" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="R26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="S26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="T26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="U26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="V26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="W26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="X26" s="22">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>12</v>
@@ -2627,58 +2627,58 @@
         <v>0</v>
       </c>
       <c r="G27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="O27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P27" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X27" s="21">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>12</v>
@@ -2701,58 +2701,58 @@
         <v>0</v>
       </c>
       <c r="G28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P28" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X28" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>12</v>
@@ -2775,58 +2775,58 @@
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P29" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X29" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>12</v>
@@ -2908,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>12</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>12</v>
@@ -3027,36 +3027,36 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="R32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="S32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="T32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="U32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="V32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="W32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="X32" s="22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>12</v>
@@ -3101,36 +3101,36 @@
         <v>0</v>
       </c>
       <c r="Q33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="R33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="S33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="T33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="U33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="V33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="W33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="X33" s="21">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>12</v>
@@ -3145,66 +3145,66 @@
         <v>0</v>
       </c>
       <c r="G34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="N34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="P34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="Q34" s="21">
         <v>0.05</v>
       </c>
-      <c r="H34" s="21">
+      <c r="R34" s="21">
         <v>0.05</v>
       </c>
-      <c r="I34" s="21">
+      <c r="S34" s="21">
         <v>0.05</v>
       </c>
-      <c r="J34" s="21">
+      <c r="T34" s="21">
         <v>0.05</v>
       </c>
-      <c r="K34" s="21">
+      <c r="U34" s="21">
         <v>0.05</v>
       </c>
-      <c r="L34" s="21">
+      <c r="V34" s="21">
         <v>0.05</v>
       </c>
-      <c r="M34" s="21">
+      <c r="W34" s="21">
         <v>0.05</v>
       </c>
-      <c r="N34" s="21">
+      <c r="X34" s="21">
         <v>0.05</v>
-      </c>
-      <c r="O34" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="P34" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="R34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="S34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="T34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="U34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="V34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="W34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="X34" s="21">
-        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>12</v>
@@ -3219,66 +3219,66 @@
         <v>0</v>
       </c>
       <c r="G35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="M35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P35" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X35" s="28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>12</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>12</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>12</v>
@@ -3471,36 +3471,36 @@
         <v>0</v>
       </c>
       <c r="Q38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="V38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="W38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="X38" s="22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>12</v>
@@ -3545,36 +3545,36 @@
         <v>0</v>
       </c>
       <c r="Q39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X39" s="21">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>12</v>
@@ -3589,66 +3589,66 @@
         <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P40" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X40" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>12</v>
@@ -3663,66 +3663,66 @@
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P41" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X41" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>12</v>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>12</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>12</v>
@@ -3885,66 +3885,66 @@
         <v>0</v>
       </c>
       <c r="G44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="H44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="I44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="J44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="L44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="M44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="N44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="O44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="P44" s="22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>12</v>
@@ -3959,66 +3959,66 @@
         <v>0</v>
       </c>
       <c r="G45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="O45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P45" s="21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="S45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="T45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="U45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="V45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="W45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="X45" s="21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>12</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>12</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>12</v>
@@ -4235,12 +4235,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>12</v>
@@ -4309,895 +4309,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="21">
-        <v>0</v>
-      </c>
-      <c r="F50" s="21">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
-        <v>0</v>
-      </c>
-      <c r="I50" s="22">
-        <v>0</v>
-      </c>
-      <c r="J50" s="22">
-        <v>0</v>
-      </c>
-      <c r="K50" s="22">
-        <v>0</v>
-      </c>
-      <c r="L50" s="22">
-        <v>0</v>
-      </c>
-      <c r="M50" s="22">
-        <v>0</v>
-      </c>
-      <c r="N50" s="22">
-        <v>0</v>
-      </c>
-      <c r="O50" s="22">
-        <v>0</v>
-      </c>
-      <c r="P50" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="R50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="S50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="T50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="U50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="V50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="W50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="X50" s="22">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="21">
-        <v>0</v>
-      </c>
-      <c r="F51" s="21">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21">
-        <v>0</v>
-      </c>
-      <c r="I51" s="21">
-        <v>0</v>
-      </c>
-      <c r="J51" s="21">
-        <v>0</v>
-      </c>
-      <c r="K51" s="21">
-        <v>0</v>
-      </c>
-      <c r="L51" s="21">
-        <v>0</v>
-      </c>
-      <c r="M51" s="21">
-        <v>0</v>
-      </c>
-      <c r="N51" s="21">
-        <v>0</v>
-      </c>
-      <c r="O51" s="21">
-        <v>0</v>
-      </c>
-      <c r="P51" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="R51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="S51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="T51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="U51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="V51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="W51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X51" s="21">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="21">
-        <v>0</v>
-      </c>
-      <c r="F52" s="21">
-        <v>0</v>
-      </c>
-      <c r="G52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="I52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="J52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="K52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="L52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="N52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="O52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="P52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="Q52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="R52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="S52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="T52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="U52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="V52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="W52" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="X52" s="21">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="21">
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
-        <v>0</v>
-      </c>
-      <c r="G53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="J53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="M53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="N53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="O53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="P53" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="Q53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="R53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="S53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="T53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="U53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="V53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="W53" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="X53" s="28">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X54" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X55" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="H56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="I56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="J56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="K56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="L56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="M56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="N56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="O56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="P56" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="Q56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="R56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="S56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="T56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="U56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="V56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="W56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="X56" s="22">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21">
-        <v>0</v>
-      </c>
-      <c r="G57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="H57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="I57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="J57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="K57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="L57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="M57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="N57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="O57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="P57" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="Q57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="R57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="S57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="T57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="U57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="V57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="W57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X57" s="21">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="21">
-        <v>0</v>
-      </c>
-      <c r="F58" s="21">
-        <v>0</v>
-      </c>
-      <c r="G58" s="21">
-        <v>0</v>
-      </c>
-      <c r="H58" s="21">
-        <v>0</v>
-      </c>
-      <c r="I58" s="21">
-        <v>0</v>
-      </c>
-      <c r="J58" s="21">
-        <v>0</v>
-      </c>
-      <c r="K58" s="21">
-        <v>0</v>
-      </c>
-      <c r="L58" s="21">
-        <v>0</v>
-      </c>
-      <c r="M58" s="21">
-        <v>0</v>
-      </c>
-      <c r="N58" s="21">
-        <v>0</v>
-      </c>
-      <c r="O58" s="21">
-        <v>0</v>
-      </c>
-      <c r="P58" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="21">
-        <v>0</v>
-      </c>
-      <c r="R58" s="21">
-        <v>0</v>
-      </c>
-      <c r="S58" s="21">
-        <v>0</v>
-      </c>
-      <c r="T58" s="21">
-        <v>0</v>
-      </c>
-      <c r="U58" s="21">
-        <v>0</v>
-      </c>
-      <c r="V58" s="21">
-        <v>0</v>
-      </c>
-      <c r="W58" s="21">
-        <v>0</v>
-      </c>
-      <c r="X58" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="21">
-        <v>0</v>
-      </c>
-      <c r="F59" s="21">
-        <v>0</v>
-      </c>
-      <c r="G59" s="28">
-        <v>0</v>
-      </c>
-      <c r="H59" s="28">
-        <v>0</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0</v>
-      </c>
-      <c r="J59" s="28">
-        <v>0</v>
-      </c>
-      <c r="K59" s="28">
-        <v>0</v>
-      </c>
-      <c r="L59" s="28">
-        <v>0</v>
-      </c>
-      <c r="M59" s="28">
-        <v>0</v>
-      </c>
-      <c r="N59" s="28">
-        <v>0</v>
-      </c>
-      <c r="O59" s="28">
-        <v>0</v>
-      </c>
-      <c r="P59" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="28">
-        <v>0</v>
-      </c>
-      <c r="R59" s="28">
-        <v>0</v>
-      </c>
-      <c r="S59" s="28">
-        <v>0</v>
-      </c>
-      <c r="T59" s="28">
-        <v>0</v>
-      </c>
-      <c r="U59" s="28">
-        <v>0</v>
-      </c>
-      <c r="V59" s="28">
-        <v>0</v>
-      </c>
-      <c r="W59" s="28">
-        <v>0</v>
-      </c>
-      <c r="X59" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X61" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X49">
+    <sortCondition ref="B1:B49"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uncertainty_models/UMCDF_I2.xlsx
+++ b/uncertainty_models/UMCDF_I2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A751C2E-7510-4981-B209-20C6BB0A9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C2292-D2FB-4AB7-BD4D-A8B9BC9C710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>ModelType</t>
   </si>
   <si>
-    <t>I2</t>
-  </si>
-  <si>
     <t>RefWeek</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>W20</t>
+  </si>
+  <si>
+    <t>I1</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,43 +718,43 @@
         <v>18</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1067,64 +1067,64 @@
         <v>19</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>6</v>
@@ -1177,33 +1177,33 @@
         <v>8</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>11</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>11</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>11</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
@@ -1511,69 +1511,69 @@
         <v>19</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>11</v>
@@ -1582,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>6</v>
@@ -1621,33 +1621,33 @@
         <v>8</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>11</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>11</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>11</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>11</v>
@@ -1955,69 +1955,69 @@
         <v>19</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>11</v>
@@ -2026,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>6</v>
@@ -2065,28 +2065,28 @@
         <v>8</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2399,64 +2399,64 @@
         <v>19</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>6</v>
@@ -2509,33 +2509,33 @@
         <v>8</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>16</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>16</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>16</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>16</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>16</v>
@@ -2843,69 +2843,69 @@
         <v>19</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X30" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>16</v>
@@ -2914,7 +2914,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>6</v>
@@ -2953,28 +2953,28 @@
         <v>8</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="V31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X31" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>12</v>
@@ -3056,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>12</v>
@@ -3130,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>12</v>
@@ -3204,7 +3204,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>12</v>
@@ -3278,7 +3278,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>12</v>
@@ -3287,64 +3287,64 @@
         <v>19</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X36" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3352,13 +3352,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>6</v>
@@ -3397,36 +3397,36 @@
         <v>8</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>12</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>12</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>12</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>12</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>12</v>
@@ -3731,78 +3731,78 @@
         <v>19</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X42" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>6</v>
@@ -3841,36 +3841,36 @@
         <v>8</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X43" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>12</v>
@@ -3941,10 +3941,10 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>12</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>12</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>12</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>12</v>
@@ -4175,78 +4175,78 @@
         <v>19</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="T48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="V48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="X48" s="31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>6</v>
@@ -4285,28 +4285,28 @@
         <v>8</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
